--- a/Curr/TeamStatsAdvan_Curr.xlsx
+++ b/Curr/TeamStatsAdvan_Curr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA/2019-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA_pred/Curr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8252C96A-9A5F-E04B-AAC5-A4C9CC21A7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03EA583-96A9-2D44-9E87-A244987AEF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="460" windowWidth="23860" windowHeight="16280" xr2:uid="{FE8A05DB-AC64-2440-A77C-05DE70FD3785}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -209,12 +215,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +539,7 @@
   <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,8 +665,8 @@
       <c r="B2" s="1">
         <v>112.3</v>
       </c>
-      <c r="C2" s="1">
-        <v>112.6</v>
+      <c r="C2" s="5">
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>111.3</v>
@@ -676,8 +683,8 @@
       <c r="H2" s="1">
         <v>112.2</v>
       </c>
-      <c r="I2" s="1">
-        <v>112.1</v>
+      <c r="I2" s="5">
+        <v>103.9</v>
       </c>
       <c r="J2" s="1">
         <v>115.8</v>
@@ -706,8 +713,8 @@
       <c r="R2" s="1">
         <v>112</v>
       </c>
-      <c r="S2" s="1">
-        <v>110.6</v>
+      <c r="S2" s="5">
+        <v>103</v>
       </c>
       <c r="T2" s="1">
         <v>109</v>
@@ -753,8 +760,8 @@
       <c r="B3" s="1">
         <v>101.6</v>
       </c>
-      <c r="C3" s="1">
-        <v>105.5</v>
+      <c r="C3" s="5">
+        <v>99</v>
       </c>
       <c r="D3" s="1">
         <v>104.9</v>
@@ -771,8 +778,8 @@
       <c r="H3" s="1">
         <v>109.2</v>
       </c>
-      <c r="I3" s="1">
-        <v>108.8</v>
+      <c r="I3" s="5">
+        <v>103</v>
       </c>
       <c r="J3" s="1">
         <v>110</v>
@@ -801,8 +808,8 @@
       <c r="R3" s="1">
         <v>113.6</v>
       </c>
-      <c r="S3" s="1">
-        <v>111.6</v>
+      <c r="S3" s="5">
+        <v>103.9</v>
       </c>
       <c r="T3" s="1">
         <v>110.8</v>
@@ -848,8 +855,8 @@
       <c r="B4" s="1">
         <v>10.7</v>
       </c>
-      <c r="C4" s="1">
-        <v>7.1</v>
+      <c r="C4" s="5">
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>6.4</v>
@@ -866,8 +873,8 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
-        <v>3.3</v>
+      <c r="I4" s="5">
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>5.8</v>
@@ -896,7 +903,7 @@
       <c r="R4" s="1">
         <v>-1.5</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="5">
         <v>-1</v>
       </c>
       <c r="T4" s="1">
@@ -943,8 +950,8 @@
       <c r="B5" s="1">
         <v>59.5</v>
       </c>
-      <c r="C5" s="1">
-        <v>60.3</v>
+      <c r="C5" s="5">
+        <v>65.599999999999994</v>
       </c>
       <c r="D5" s="1">
         <v>62.6</v>
@@ -961,8 +968,8 @@
       <c r="H5" s="1">
         <v>65.599999999999994</v>
       </c>
-      <c r="I5" s="1">
-        <v>55.2</v>
+      <c r="I5" s="5">
+        <v>45.9</v>
       </c>
       <c r="J5" s="1">
         <v>58.8</v>
@@ -991,8 +998,8 @@
       <c r="R5" s="1">
         <v>48.2</v>
       </c>
-      <c r="S5" s="1">
-        <v>63.3</v>
+      <c r="S5" s="5">
+        <v>55</v>
       </c>
       <c r="T5" s="1">
         <v>58</v>
@@ -1038,8 +1045,8 @@
       <c r="B6" s="1">
         <v>1.74</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.71</v>
+      <c r="C6" s="5">
+        <v>1.31</v>
       </c>
       <c r="D6" s="1">
         <v>1.76</v>
@@ -1056,8 +1063,8 @@
       <c r="H6" s="1">
         <v>1.74</v>
       </c>
-      <c r="I6" s="1">
-        <v>1.49</v>
+      <c r="I6" s="5">
+        <v>0.85</v>
       </c>
       <c r="J6" s="1">
         <v>1.91</v>
@@ -1086,8 +1093,8 @@
       <c r="R6" s="1">
         <v>1.55</v>
       </c>
-      <c r="S6" s="1">
-        <v>1.66</v>
+      <c r="S6" s="5">
+        <v>1.05</v>
       </c>
       <c r="T6" s="1">
         <v>1.62</v>
@@ -1133,8 +1140,8 @@
       <c r="B7" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="C7" s="1">
-        <v>18.3</v>
+      <c r="C7" s="5">
+        <v>15.2</v>
       </c>
       <c r="D7" s="1">
         <v>18.2</v>
@@ -1151,8 +1158,8 @@
       <c r="H7" s="1">
         <v>18.8</v>
       </c>
-      <c r="I7" s="1">
-        <v>16.7</v>
+      <c r="I7" s="5">
+        <v>12.5</v>
       </c>
       <c r="J7" s="1">
         <v>17.600000000000001</v>
@@ -1181,8 +1188,8 @@
       <c r="R7" s="1">
         <v>15</v>
       </c>
-      <c r="S7" s="1">
-        <v>18.399999999999999</v>
+      <c r="S7" s="5">
+        <v>15.3</v>
       </c>
       <c r="T7" s="1">
         <v>17.3</v>
@@ -1228,8 +1235,8 @@
       <c r="B8" s="1">
         <v>24.1</v>
       </c>
-      <c r="C8" s="1">
-        <v>28.4</v>
+      <c r="C8" s="5">
+        <v>25.5</v>
       </c>
       <c r="D8" s="1">
         <v>25.9</v>
@@ -1246,8 +1253,8 @@
       <c r="H8" s="1">
         <v>25.9</v>
       </c>
-      <c r="I8" s="1">
-        <v>25.8</v>
+      <c r="I8" s="5">
+        <v>34</v>
       </c>
       <c r="J8" s="1">
         <v>27.5</v>
@@ -1276,8 +1283,8 @@
       <c r="R8" s="1">
         <v>26.3</v>
       </c>
-      <c r="S8" s="1">
-        <v>28.8</v>
+      <c r="S8" s="5">
+        <v>36.799999999999997</v>
       </c>
       <c r="T8" s="1">
         <v>25.6</v>
@@ -1323,8 +1330,8 @@
       <c r="B9" s="1">
         <v>77.599999999999994</v>
       </c>
-      <c r="C9" s="1">
-        <v>73.400000000000006</v>
+      <c r="C9" s="5">
+        <v>81.400000000000006</v>
       </c>
       <c r="D9" s="1">
         <v>71.5</v>
@@ -1341,8 +1348,8 @@
       <c r="H9" s="1">
         <v>75.599999999999994</v>
       </c>
-      <c r="I9" s="1">
-        <v>74.7</v>
+      <c r="I9" s="5">
+        <v>63.2</v>
       </c>
       <c r="J9" s="1">
         <v>73.8</v>
@@ -1371,8 +1378,8 @@
       <c r="R9" s="1">
         <v>71</v>
       </c>
-      <c r="S9" s="1">
-        <v>73.099999999999994</v>
+      <c r="S9" s="5">
+        <v>66</v>
       </c>
       <c r="T9" s="1">
         <v>73.5</v>
@@ -1418,8 +1425,8 @@
       <c r="B10" s="1">
         <v>52.4</v>
       </c>
-      <c r="C10" s="1">
-        <v>51.4</v>
+      <c r="C10" s="5">
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>49.4</v>
@@ -1436,8 +1443,8 @@
       <c r="H10" s="1">
         <v>51.6</v>
       </c>
-      <c r="I10" s="1">
-        <v>51.2</v>
+      <c r="I10" s="5">
+        <v>49.5</v>
       </c>
       <c r="J10" s="1">
         <v>51</v>
@@ -1466,8 +1473,8 @@
       <c r="R10" s="1">
         <v>49.1</v>
       </c>
-      <c r="S10" s="1">
-        <v>50.9</v>
+      <c r="S10" s="5">
+        <v>50.5</v>
       </c>
       <c r="T10" s="1">
         <v>49</v>
@@ -1513,8 +1520,8 @@
       <c r="B11" s="1">
         <v>14.1</v>
       </c>
-      <c r="C11" s="1">
-        <v>14.9</v>
+      <c r="C11" s="5">
+        <v>15.5</v>
       </c>
       <c r="D11" s="1">
         <v>14.2</v>
@@ -1531,8 +1538,8 @@
       <c r="H11" s="1">
         <v>14.9</v>
       </c>
-      <c r="I11" s="1">
-        <v>15</v>
+      <c r="I11" s="5">
+        <v>19.600000000000001</v>
       </c>
       <c r="J11" s="1">
         <v>12.7</v>
@@ -1561,8 +1568,8 @@
       <c r="R11" s="1">
         <v>12.8</v>
       </c>
-      <c r="S11" s="1">
-        <v>15.4</v>
+      <c r="S11" s="5">
+        <v>20.8</v>
       </c>
       <c r="T11" s="1">
         <v>14.4</v>
@@ -1608,8 +1615,8 @@
       <c r="B12" s="1">
         <v>55.3</v>
       </c>
-      <c r="C12" s="1">
-        <v>54.8</v>
+      <c r="C12" s="5">
+        <v>45.7</v>
       </c>
       <c r="D12" s="1">
         <v>53.6</v>
@@ -1626,8 +1633,8 @@
       <c r="H12" s="1">
         <v>54.9</v>
       </c>
-      <c r="I12" s="1">
-        <v>55.2</v>
+      <c r="I12" s="5">
+        <v>48.8</v>
       </c>
       <c r="J12" s="1">
         <v>54.8</v>
@@ -1656,8 +1663,8 @@
       <c r="R12" s="1">
         <v>53</v>
       </c>
-      <c r="S12" s="1">
-        <v>53.8</v>
+      <c r="S12" s="5">
+        <v>48.4</v>
       </c>
       <c r="T12" s="1">
         <v>53.1</v>
@@ -1703,8 +1710,8 @@
       <c r="B13" s="1">
         <v>58.3</v>
       </c>
-      <c r="C13" s="1">
-        <v>57.7</v>
+      <c r="C13" s="5">
+        <v>52.4</v>
       </c>
       <c r="D13" s="1">
         <v>57.4</v>
@@ -1721,8 +1728,8 @@
       <c r="H13" s="1">
         <v>58.7</v>
       </c>
-      <c r="I13" s="1">
-        <v>58.7</v>
+      <c r="I13" s="5">
+        <v>55</v>
       </c>
       <c r="J13" s="1">
         <v>58.1</v>
@@ -1751,8 +1758,8 @@
       <c r="R13" s="1">
         <v>56.6</v>
       </c>
-      <c r="S13" s="1">
-        <v>56.7</v>
+      <c r="S13" s="5">
+        <v>51</v>
       </c>
       <c r="T13" s="1">
         <v>56.3</v>
@@ -1798,8 +1805,8 @@
       <c r="B14" s="1">
         <v>105.36</v>
       </c>
-      <c r="C14" s="1">
-        <v>101.11</v>
+      <c r="C14" s="5">
+        <v>102.5</v>
       </c>
       <c r="D14" s="1">
         <v>100.87</v>
@@ -1816,8 +1823,8 @@
       <c r="H14" s="1">
         <v>98.46</v>
       </c>
-      <c r="I14" s="1">
-        <v>98.95</v>
+      <c r="I14" s="5">
+        <v>101.5</v>
       </c>
       <c r="J14" s="1">
         <v>99.78</v>
@@ -1846,8 +1853,8 @@
       <c r="R14" s="1">
         <v>101.15</v>
       </c>
-      <c r="S14" s="1">
-        <v>103.96</v>
+      <c r="S14" s="5">
+        <v>101.5</v>
       </c>
       <c r="T14" s="1">
         <v>99.08</v>
@@ -1893,8 +1900,8 @@
       <c r="B15" s="1">
         <v>56.8</v>
       </c>
-      <c r="C15" s="1">
-        <v>54.9</v>
+      <c r="C15" s="5">
+        <v>53.7</v>
       </c>
       <c r="D15" s="1">
         <v>53.1</v>
@@ -1911,8 +1918,8 @@
       <c r="H15" s="1">
         <v>52.6</v>
       </c>
-      <c r="I15" s="1">
-        <v>51.8</v>
+      <c r="I15" s="5">
+        <v>52.8</v>
       </c>
       <c r="J15" s="1">
         <v>52.6</v>
@@ -1941,8 +1948,8 @@
       <c r="R15" s="1">
         <v>48.3</v>
       </c>
-      <c r="S15" s="1">
-        <v>49.7</v>
+      <c r="S15" s="5">
+        <v>47.2</v>
       </c>
       <c r="T15" s="1">
         <v>47.8</v>
